--- a/Agricultura/4.8.xlsx
+++ b/Agricultura/4.8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Agricultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC81319F-2C1B-4C61-BA71-307DA1D5A104}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E2542B-CF3A-44CF-A539-B3AE6ECA223F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{979C522D-E4CE-9C4F-9DDF-D78696795F80}"/>
   </bookViews>
@@ -834,7 +834,7 @@
   <dimension ref="A1:N297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
